--- a/OA/03.详细设计/03.消息一览/Message一览.xlsx
+++ b/OA/03.详细设计/03.消息一览/Message一览.xlsx
@@ -16,14 +16,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">命名规则!$A$1:$BZ$99</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">业务common消息!$A$1:$BZ$85</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">业务模块消息!$A$1:$BZ$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">业务模块消息!$A$1:$BZ$99</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="220">
   <si>
     <t>1.业务common Message定义规则：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -883,11 +883,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>新密码和确认新密码不一致，请重新输入！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>ERROR_PA006_0002</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新密码和确认新密码不一致，请重新输入！</t>
+    <t>ERROR_PA006_0003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原密码和新密码一致，请重新输入！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -26454,10 +26462,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ98"/>
+  <dimension ref="A1:BZ99"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:T20"/>
+      <selection activeCell="AV20" sqref="AV20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.88671875" defaultRowHeight="12"/>
@@ -28073,7 +28081,7 @@
       <c r="J20" s="142"/>
       <c r="K20" s="143"/>
       <c r="L20" s="144" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" s="142"/>
       <c r="N20" s="142"/>
@@ -28084,7 +28092,7 @@
       <c r="S20" s="142"/>
       <c r="T20" s="143"/>
       <c r="U20" s="64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
@@ -28156,7 +28164,9 @@
       <c r="I21" s="142"/>
       <c r="J21" s="142"/>
       <c r="K21" s="143"/>
-      <c r="L21" s="144"/>
+      <c r="L21" s="144" t="s">
+        <v>218</v>
+      </c>
       <c r="M21" s="142"/>
       <c r="N21" s="142"/>
       <c r="O21" s="142"/>
@@ -28165,7 +28175,9 @@
       <c r="R21" s="142"/>
       <c r="S21" s="142"/>
       <c r="T21" s="143"/>
-      <c r="U21" s="64"/>
+      <c r="U21" s="64" t="s">
+        <v>219</v>
+      </c>
       <c r="V21" s="65"/>
       <c r="W21" s="65"/>
       <c r="X21" s="65"/>
@@ -28226,60 +28238,54 @@
     </row>
     <row r="22" spans="1:78" s="63" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="140" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="137" t="s">
-        <v>196</v>
-      </c>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="138"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="134" t="s">
-        <v>186</v>
-      </c>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="135"/>
-      <c r="AF22" s="135"/>
-      <c r="AG22" s="135"/>
-      <c r="AH22" s="135"/>
-      <c r="AI22" s="135"/>
-      <c r="AJ22" s="135"/>
-      <c r="AK22" s="135"/>
-      <c r="AL22" s="135"/>
-      <c r="AM22" s="135"/>
-      <c r="AN22" s="135"/>
-      <c r="AO22" s="135"/>
-      <c r="AP22" s="135"/>
-      <c r="AQ22" s="135"/>
-      <c r="AR22" s="135"/>
-      <c r="AS22" s="135"/>
-      <c r="AT22" s="135"/>
-      <c r="AU22" s="135"/>
-      <c r="AV22" s="135"/>
-      <c r="AW22" s="136"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
+      <c r="S22" s="142"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="66"/>
       <c r="AX22" s="13"/>
       <c r="AY22" s="14"/>
       <c r="AZ22" s="14"/>
@@ -28312,26 +28318,32 @@
     </row>
     <row r="23" spans="1:78" s="63" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="114"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="134"/>
+      <c r="B23" s="140" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="137" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="134" t="s">
+        <v>186</v>
+      </c>
       <c r="V23" s="135"/>
       <c r="W23" s="135"/>
       <c r="X23" s="135"/>
@@ -28402,9 +28414,7 @@
       <c r="I24" s="114"/>
       <c r="J24" s="114"/>
       <c r="K24" s="114"/>
-      <c r="L24" s="114" t="s">
-        <v>191</v>
-      </c>
+      <c r="L24" s="114"/>
       <c r="M24" s="114"/>
       <c r="N24" s="114"/>
       <c r="O24" s="114"/>
@@ -28413,9 +28423,7 @@
       <c r="R24" s="114"/>
       <c r="S24" s="114"/>
       <c r="T24" s="114"/>
-      <c r="U24" s="134" t="s">
-        <v>185</v>
-      </c>
+      <c r="U24" s="134"/>
       <c r="V24" s="135"/>
       <c r="W24" s="135"/>
       <c r="X24" s="135"/>
@@ -28474,7 +28482,7 @@
       <c r="BY24" s="5"/>
       <c r="BZ24" s="49"/>
     </row>
-    <row r="25" spans="1:78" ht="15" customHeight="1">
+    <row r="25" spans="1:78" s="63" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="132"/>
       <c r="C25" s="114"/>
@@ -28486,7 +28494,9 @@
       <c r="I25" s="114"/>
       <c r="J25" s="114"/>
       <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
+      <c r="L25" s="114" t="s">
+        <v>191</v>
+      </c>
       <c r="M25" s="114"/>
       <c r="N25" s="114"/>
       <c r="O25" s="114"/>
@@ -28495,35 +28505,37 @@
       <c r="R25" s="114"/>
       <c r="S25" s="114"/>
       <c r="T25" s="114"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="111"/>
-      <c r="X25" s="111"/>
-      <c r="Y25" s="111"/>
-      <c r="Z25" s="111"/>
-      <c r="AA25" s="111"/>
-      <c r="AB25" s="111"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="111"/>
-      <c r="AE25" s="111"/>
-      <c r="AF25" s="111"/>
-      <c r="AG25" s="111"/>
-      <c r="AH25" s="111"/>
-      <c r="AI25" s="111"/>
-      <c r="AJ25" s="111"/>
-      <c r="AK25" s="111"/>
-      <c r="AL25" s="111"/>
-      <c r="AM25" s="111"/>
-      <c r="AN25" s="111"/>
-      <c r="AO25" s="111"/>
-      <c r="AP25" s="111"/>
-      <c r="AQ25" s="111"/>
-      <c r="AR25" s="111"/>
-      <c r="AS25" s="111"/>
-      <c r="AT25" s="111"/>
-      <c r="AU25" s="111"/>
-      <c r="AV25" s="111"/>
-      <c r="AW25" s="112"/>
+      <c r="U25" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="135"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="135"/>
+      <c r="AH25" s="135"/>
+      <c r="AI25" s="135"/>
+      <c r="AJ25" s="135"/>
+      <c r="AK25" s="135"/>
+      <c r="AL25" s="135"/>
+      <c r="AM25" s="135"/>
+      <c r="AN25" s="135"/>
+      <c r="AO25" s="135"/>
+      <c r="AP25" s="135"/>
+      <c r="AQ25" s="135"/>
+      <c r="AR25" s="135"/>
+      <c r="AS25" s="135"/>
+      <c r="AT25" s="135"/>
+      <c r="AU25" s="135"/>
+      <c r="AV25" s="135"/>
+      <c r="AW25" s="136"/>
       <c r="AX25" s="13"/>
       <c r="AY25" s="14"/>
       <c r="AZ25" s="14"/>
@@ -28554,11 +28566,9 @@
       <c r="BY25" s="5"/>
       <c r="BZ25" s="49"/>
     </row>
-    <row r="26" spans="1:78" s="63" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:78" ht="15" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="132" t="s">
-        <v>208</v>
-      </c>
+      <c r="B26" s="132"/>
       <c r="C26" s="114"/>
       <c r="D26" s="114"/>
       <c r="E26" s="114"/>
@@ -28568,9 +28578,7 @@
       <c r="I26" s="114"/>
       <c r="J26" s="114"/>
       <c r="K26" s="114"/>
-      <c r="L26" s="114" t="s">
-        <v>209</v>
-      </c>
+      <c r="L26" s="114"/>
       <c r="M26" s="114"/>
       <c r="N26" s="114"/>
       <c r="O26" s="114"/>
@@ -28579,37 +28587,35 @@
       <c r="R26" s="114"/>
       <c r="S26" s="114"/>
       <c r="T26" s="114"/>
-      <c r="U26" s="134" t="s">
-        <v>210</v>
-      </c>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="135"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="135"/>
-      <c r="AH26" s="135"/>
-      <c r="AI26" s="135"/>
-      <c r="AJ26" s="135"/>
-      <c r="AK26" s="135"/>
-      <c r="AL26" s="135"/>
-      <c r="AM26" s="135"/>
-      <c r="AN26" s="135"/>
-      <c r="AO26" s="135"/>
-      <c r="AP26" s="135"/>
-      <c r="AQ26" s="135"/>
-      <c r="AR26" s="135"/>
-      <c r="AS26" s="135"/>
-      <c r="AT26" s="135"/>
-      <c r="AU26" s="135"/>
-      <c r="AV26" s="135"/>
-      <c r="AW26" s="136"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="111"/>
+      <c r="AB26" s="111"/>
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="111"/>
+      <c r="AF26" s="111"/>
+      <c r="AG26" s="111"/>
+      <c r="AH26" s="111"/>
+      <c r="AI26" s="111"/>
+      <c r="AJ26" s="111"/>
+      <c r="AK26" s="111"/>
+      <c r="AL26" s="111"/>
+      <c r="AM26" s="111"/>
+      <c r="AN26" s="111"/>
+      <c r="AO26" s="111"/>
+      <c r="AP26" s="111"/>
+      <c r="AQ26" s="111"/>
+      <c r="AR26" s="111"/>
+      <c r="AS26" s="111"/>
+      <c r="AT26" s="111"/>
+      <c r="AU26" s="111"/>
+      <c r="AV26" s="111"/>
+      <c r="AW26" s="112"/>
       <c r="AX26" s="13"/>
       <c r="AY26" s="14"/>
       <c r="AZ26" s="14"/>
@@ -28640,9 +28646,11 @@
       <c r="BY26" s="5"/>
       <c r="BZ26" s="49"/>
     </row>
-    <row r="27" spans="1:78" ht="15" customHeight="1">
+    <row r="27" spans="1:78" s="63" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="132"/>
+      <c r="B27" s="132" t="s">
+        <v>208</v>
+      </c>
       <c r="C27" s="114"/>
       <c r="D27" s="114"/>
       <c r="E27" s="114"/>
@@ -28652,7 +28660,9 @@
       <c r="I27" s="114"/>
       <c r="J27" s="114"/>
       <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
+      <c r="L27" s="114" t="s">
+        <v>209</v>
+      </c>
       <c r="M27" s="114"/>
       <c r="N27" s="114"/>
       <c r="O27" s="114"/>
@@ -28661,35 +28671,37 @@
       <c r="R27" s="114"/>
       <c r="S27" s="114"/>
       <c r="T27" s="114"/>
-      <c r="U27" s="110"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="111"/>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="111"/>
-      <c r="Z27" s="111"/>
-      <c r="AA27" s="111"/>
-      <c r="AB27" s="111"/>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="111"/>
-      <c r="AE27" s="111"/>
-      <c r="AF27" s="111"/>
-      <c r="AG27" s="111"/>
-      <c r="AH27" s="111"/>
-      <c r="AI27" s="111"/>
-      <c r="AJ27" s="111"/>
-      <c r="AK27" s="111"/>
-      <c r="AL27" s="111"/>
-      <c r="AM27" s="111"/>
-      <c r="AN27" s="111"/>
-      <c r="AO27" s="111"/>
-      <c r="AP27" s="111"/>
-      <c r="AQ27" s="111"/>
-      <c r="AR27" s="111"/>
-      <c r="AS27" s="111"/>
-      <c r="AT27" s="111"/>
-      <c r="AU27" s="111"/>
-      <c r="AV27" s="111"/>
-      <c r="AW27" s="112"/>
+      <c r="U27" s="134" t="s">
+        <v>210</v>
+      </c>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="135"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="135"/>
+      <c r="AH27" s="135"/>
+      <c r="AI27" s="135"/>
+      <c r="AJ27" s="135"/>
+      <c r="AK27" s="135"/>
+      <c r="AL27" s="135"/>
+      <c r="AM27" s="135"/>
+      <c r="AN27" s="135"/>
+      <c r="AO27" s="135"/>
+      <c r="AP27" s="135"/>
+      <c r="AQ27" s="135"/>
+      <c r="AR27" s="135"/>
+      <c r="AS27" s="135"/>
+      <c r="AT27" s="135"/>
+      <c r="AU27" s="135"/>
+      <c r="AV27" s="135"/>
+      <c r="AW27" s="136"/>
       <c r="AX27" s="13"/>
       <c r="AY27" s="14"/>
       <c r="AZ27" s="14"/>
@@ -28722,9 +28734,7 @@
     </row>
     <row r="28" spans="1:78" ht="15" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="132" t="s">
-        <v>195</v>
-      </c>
+      <c r="B28" s="132"/>
       <c r="C28" s="114"/>
       <c r="D28" s="114"/>
       <c r="E28" s="114"/>
@@ -28734,9 +28744,7 @@
       <c r="I28" s="114"/>
       <c r="J28" s="114"/>
       <c r="K28" s="114"/>
-      <c r="L28" s="114" t="s">
-        <v>197</v>
-      </c>
+      <c r="L28" s="114"/>
       <c r="M28" s="114"/>
       <c r="N28" s="114"/>
       <c r="O28" s="114"/>
@@ -28745,9 +28753,7 @@
       <c r="R28" s="114"/>
       <c r="S28" s="114"/>
       <c r="T28" s="114"/>
-      <c r="U28" s="110" t="s">
-        <v>198</v>
-      </c>
+      <c r="U28" s="110"/>
       <c r="V28" s="111"/>
       <c r="W28" s="111"/>
       <c r="X28" s="111"/>
@@ -28808,7 +28814,9 @@
     </row>
     <row r="29" spans="1:78" ht="15" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="132"/>
+      <c r="B29" s="132" t="s">
+        <v>195</v>
+      </c>
       <c r="C29" s="114"/>
       <c r="D29" s="114"/>
       <c r="E29" s="114"/>
@@ -28818,7 +28826,9 @@
       <c r="I29" s="114"/>
       <c r="J29" s="114"/>
       <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
+      <c r="L29" s="114" t="s">
+        <v>197</v>
+      </c>
       <c r="M29" s="114"/>
       <c r="N29" s="114"/>
       <c r="O29" s="114"/>
@@ -28827,7 +28837,9 @@
       <c r="R29" s="114"/>
       <c r="S29" s="114"/>
       <c r="T29" s="114"/>
-      <c r="U29" s="110"/>
+      <c r="U29" s="110" t="s">
+        <v>198</v>
+      </c>
       <c r="V29" s="111"/>
       <c r="W29" s="111"/>
       <c r="X29" s="111"/>
@@ -29448,63 +29460,63 @@
     </row>
     <row r="37" spans="1:78" ht="15" customHeight="1">
       <c r="A37" s="12"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="129"/>
-      <c r="V37" s="130"/>
-      <c r="W37" s="130"/>
-      <c r="X37" s="130"/>
-      <c r="Y37" s="130"/>
-      <c r="Z37" s="130"/>
-      <c r="AA37" s="130"/>
-      <c r="AB37" s="130"/>
-      <c r="AC37" s="130"/>
-      <c r="AD37" s="130"/>
-      <c r="AE37" s="130"/>
-      <c r="AF37" s="130"/>
-      <c r="AG37" s="130"/>
-      <c r="AH37" s="130"/>
-      <c r="AI37" s="130"/>
-      <c r="AJ37" s="130"/>
-      <c r="AK37" s="130"/>
-      <c r="AL37" s="130"/>
-      <c r="AM37" s="130"/>
-      <c r="AN37" s="130"/>
-      <c r="AO37" s="130"/>
-      <c r="AP37" s="130"/>
-      <c r="AQ37" s="130"/>
-      <c r="AR37" s="130"/>
-      <c r="AS37" s="130"/>
-      <c r="AT37" s="130"/>
-      <c r="AU37" s="130"/>
-      <c r="AV37" s="130"/>
-      <c r="AW37" s="131"/>
-      <c r="AX37" s="15"/>
-      <c r="AY37" s="16"/>
-      <c r="AZ37" s="16"/>
-      <c r="BA37" s="16"/>
-      <c r="BB37" s="16"/>
-      <c r="BC37" s="16"/>
-      <c r="BD37" s="16"/>
-      <c r="BE37" s="16"/>
-      <c r="BF37" s="18"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
+      <c r="Z37" s="111"/>
+      <c r="AA37" s="111"/>
+      <c r="AB37" s="111"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="111"/>
+      <c r="AH37" s="111"/>
+      <c r="AI37" s="111"/>
+      <c r="AJ37" s="111"/>
+      <c r="AK37" s="111"/>
+      <c r="AL37" s="111"/>
+      <c r="AM37" s="111"/>
+      <c r="AN37" s="111"/>
+      <c r="AO37" s="111"/>
+      <c r="AP37" s="111"/>
+      <c r="AQ37" s="111"/>
+      <c r="AR37" s="111"/>
+      <c r="AS37" s="111"/>
+      <c r="AT37" s="111"/>
+      <c r="AU37" s="111"/>
+      <c r="AV37" s="111"/>
+      <c r="AW37" s="112"/>
+      <c r="AX37" s="13"/>
+      <c r="AY37" s="14"/>
+      <c r="AZ37" s="14"/>
+      <c r="BA37" s="14"/>
+      <c r="BB37" s="14"/>
+      <c r="BC37" s="14"/>
+      <c r="BD37" s="14"/>
+      <c r="BE37" s="14"/>
+      <c r="BF37" s="17"/>
       <c r="BG37" s="6"/>
       <c r="BH37" s="6"/>
       <c r="BI37" s="5"/>
@@ -29526,67 +29538,67 @@
       <c r="BY37" s="5"/>
       <c r="BZ37" s="49"/>
     </row>
-    <row r="38" spans="1:78">
-      <c r="A38" s="52"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="5"/>
-      <c r="AT38" s="5"/>
-      <c r="AU38" s="5"/>
-      <c r="AV38" s="5"/>
-      <c r="AW38" s="5"/>
-      <c r="AX38" s="5"/>
-      <c r="AY38" s="5"/>
-      <c r="AZ38" s="5"/>
-      <c r="BA38" s="5"/>
-      <c r="BB38" s="5"/>
-      <c r="BC38" s="5"/>
-      <c r="BD38" s="5"/>
-      <c r="BE38" s="5"/>
-      <c r="BF38" s="5"/>
-      <c r="BG38" s="5"/>
-      <c r="BH38" s="5"/>
+    <row r="38" spans="1:78" ht="15" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="128"/>
+      <c r="M38" s="128"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="128"/>
+      <c r="Q38" s="128"/>
+      <c r="R38" s="128"/>
+      <c r="S38" s="128"/>
+      <c r="T38" s="128"/>
+      <c r="U38" s="129"/>
+      <c r="V38" s="130"/>
+      <c r="W38" s="130"/>
+      <c r="X38" s="130"/>
+      <c r="Y38" s="130"/>
+      <c r="Z38" s="130"/>
+      <c r="AA38" s="130"/>
+      <c r="AB38" s="130"/>
+      <c r="AC38" s="130"/>
+      <c r="AD38" s="130"/>
+      <c r="AE38" s="130"/>
+      <c r="AF38" s="130"/>
+      <c r="AG38" s="130"/>
+      <c r="AH38" s="130"/>
+      <c r="AI38" s="130"/>
+      <c r="AJ38" s="130"/>
+      <c r="AK38" s="130"/>
+      <c r="AL38" s="130"/>
+      <c r="AM38" s="130"/>
+      <c r="AN38" s="130"/>
+      <c r="AO38" s="130"/>
+      <c r="AP38" s="130"/>
+      <c r="AQ38" s="130"/>
+      <c r="AR38" s="130"/>
+      <c r="AS38" s="130"/>
+      <c r="AT38" s="130"/>
+      <c r="AU38" s="130"/>
+      <c r="AV38" s="130"/>
+      <c r="AW38" s="131"/>
+      <c r="AX38" s="15"/>
+      <c r="AY38" s="16"/>
+      <c r="AZ38" s="16"/>
+      <c r="BA38" s="16"/>
+      <c r="BB38" s="16"/>
+      <c r="BC38" s="16"/>
+      <c r="BD38" s="16"/>
+      <c r="BE38" s="16"/>
+      <c r="BF38" s="18"/>
+      <c r="BG38" s="6"/>
+      <c r="BH38" s="6"/>
       <c r="BI38" s="5"/>
       <c r="BJ38" s="5"/>
       <c r="BK38" s="5"/>
@@ -34327,84 +34339,164 @@
       <c r="BZ97" s="49"/>
     </row>
     <row r="98" spans="1:78">
-      <c r="A98" s="53"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="54"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="54"/>
-      <c r="O98" s="54"/>
-      <c r="P98" s="54"/>
-      <c r="Q98" s="54"/>
-      <c r="R98" s="54"/>
-      <c r="S98" s="54"/>
-      <c r="T98" s="54"/>
-      <c r="U98" s="54"/>
-      <c r="V98" s="54"/>
-      <c r="W98" s="54"/>
-      <c r="X98" s="54"/>
-      <c r="Y98" s="54"/>
-      <c r="Z98" s="54"/>
-      <c r="AA98" s="54"/>
-      <c r="AB98" s="54"/>
-      <c r="AC98" s="54"/>
-      <c r="AD98" s="54"/>
-      <c r="AE98" s="54"/>
-      <c r="AF98" s="54"/>
-      <c r="AG98" s="54"/>
-      <c r="AH98" s="54"/>
-      <c r="AI98" s="54"/>
-      <c r="AJ98" s="54"/>
-      <c r="AK98" s="54"/>
-      <c r="AL98" s="54"/>
-      <c r="AM98" s="54"/>
-      <c r="AN98" s="54"/>
-      <c r="AO98" s="54"/>
-      <c r="AP98" s="54"/>
-      <c r="AQ98" s="54"/>
-      <c r="AR98" s="54"/>
-      <c r="AS98" s="54"/>
-      <c r="AT98" s="54"/>
-      <c r="AU98" s="54"/>
-      <c r="AV98" s="54"/>
-      <c r="AW98" s="54"/>
-      <c r="AX98" s="54"/>
-      <c r="AY98" s="54"/>
-      <c r="AZ98" s="54"/>
-      <c r="BA98" s="54"/>
-      <c r="BB98" s="54"/>
-      <c r="BC98" s="54"/>
-      <c r="BD98" s="54"/>
-      <c r="BE98" s="54"/>
-      <c r="BF98" s="54"/>
-      <c r="BG98" s="54"/>
-      <c r="BH98" s="54"/>
-      <c r="BI98" s="54"/>
-      <c r="BJ98" s="54"/>
-      <c r="BK98" s="54"/>
-      <c r="BL98" s="54"/>
-      <c r="BM98" s="54"/>
-      <c r="BN98" s="54"/>
-      <c r="BO98" s="54"/>
-      <c r="BP98" s="54"/>
-      <c r="BQ98" s="54"/>
-      <c r="BR98" s="54"/>
-      <c r="BS98" s="54"/>
-      <c r="BT98" s="54"/>
-      <c r="BU98" s="54"/>
-      <c r="BV98" s="54"/>
-      <c r="BW98" s="54"/>
-      <c r="BX98" s="54"/>
-      <c r="BY98" s="54"/>
-      <c r="BZ98" s="55"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="5"/>
+      <c r="AG98" s="5"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="5"/>
+      <c r="AJ98" s="5"/>
+      <c r="AK98" s="5"/>
+      <c r="AL98" s="5"/>
+      <c r="AM98" s="5"/>
+      <c r="AN98" s="5"/>
+      <c r="AO98" s="5"/>
+      <c r="AP98" s="5"/>
+      <c r="AQ98" s="5"/>
+      <c r="AR98" s="5"/>
+      <c r="AS98" s="5"/>
+      <c r="AT98" s="5"/>
+      <c r="AU98" s="5"/>
+      <c r="AV98" s="5"/>
+      <c r="AW98" s="5"/>
+      <c r="AX98" s="5"/>
+      <c r="AY98" s="5"/>
+      <c r="AZ98" s="5"/>
+      <c r="BA98" s="5"/>
+      <c r="BB98" s="5"/>
+      <c r="BC98" s="5"/>
+      <c r="BD98" s="5"/>
+      <c r="BE98" s="5"/>
+      <c r="BF98" s="5"/>
+      <c r="BG98" s="5"/>
+      <c r="BH98" s="5"/>
+      <c r="BI98" s="5"/>
+      <c r="BJ98" s="5"/>
+      <c r="BK98" s="5"/>
+      <c r="BL98" s="5"/>
+      <c r="BM98" s="5"/>
+      <c r="BN98" s="5"/>
+      <c r="BO98" s="5"/>
+      <c r="BP98" s="5"/>
+      <c r="BQ98" s="5"/>
+      <c r="BR98" s="5"/>
+      <c r="BS98" s="5"/>
+      <c r="BT98" s="5"/>
+      <c r="BU98" s="5"/>
+      <c r="BV98" s="5"/>
+      <c r="BW98" s="5"/>
+      <c r="BX98" s="5"/>
+      <c r="BY98" s="5"/>
+      <c r="BZ98" s="49"/>
+    </row>
+    <row r="99" spans="1:78">
+      <c r="A99" s="53"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="54"/>
+      <c r="O99" s="54"/>
+      <c r="P99" s="54"/>
+      <c r="Q99" s="54"/>
+      <c r="R99" s="54"/>
+      <c r="S99" s="54"/>
+      <c r="T99" s="54"/>
+      <c r="U99" s="54"/>
+      <c r="V99" s="54"/>
+      <c r="W99" s="54"/>
+      <c r="X99" s="54"/>
+      <c r="Y99" s="54"/>
+      <c r="Z99" s="54"/>
+      <c r="AA99" s="54"/>
+      <c r="AB99" s="54"/>
+      <c r="AC99" s="54"/>
+      <c r="AD99" s="54"/>
+      <c r="AE99" s="54"/>
+      <c r="AF99" s="54"/>
+      <c r="AG99" s="54"/>
+      <c r="AH99" s="54"/>
+      <c r="AI99" s="54"/>
+      <c r="AJ99" s="54"/>
+      <c r="AK99" s="54"/>
+      <c r="AL99" s="54"/>
+      <c r="AM99" s="54"/>
+      <c r="AN99" s="54"/>
+      <c r="AO99" s="54"/>
+      <c r="AP99" s="54"/>
+      <c r="AQ99" s="54"/>
+      <c r="AR99" s="54"/>
+      <c r="AS99" s="54"/>
+      <c r="AT99" s="54"/>
+      <c r="AU99" s="54"/>
+      <c r="AV99" s="54"/>
+      <c r="AW99" s="54"/>
+      <c r="AX99" s="54"/>
+      <c r="AY99" s="54"/>
+      <c r="AZ99" s="54"/>
+      <c r="BA99" s="54"/>
+      <c r="BB99" s="54"/>
+      <c r="BC99" s="54"/>
+      <c r="BD99" s="54"/>
+      <c r="BE99" s="54"/>
+      <c r="BF99" s="54"/>
+      <c r="BG99" s="54"/>
+      <c r="BH99" s="54"/>
+      <c r="BI99" s="54"/>
+      <c r="BJ99" s="54"/>
+      <c r="BK99" s="54"/>
+      <c r="BL99" s="54"/>
+      <c r="BM99" s="54"/>
+      <c r="BN99" s="54"/>
+      <c r="BO99" s="54"/>
+      <c r="BP99" s="54"/>
+      <c r="BQ99" s="54"/>
+      <c r="BR99" s="54"/>
+      <c r="BS99" s="54"/>
+      <c r="BT99" s="54"/>
+      <c r="BU99" s="54"/>
+      <c r="BV99" s="54"/>
+      <c r="BW99" s="54"/>
+      <c r="BX99" s="54"/>
+      <c r="BY99" s="54"/>
+      <c r="BZ99" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="107">
@@ -34445,15 +34537,15 @@
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="L7:T7"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U14:AW14"/>
+    <mergeCell ref="U23:AW23"/>
+    <mergeCell ref="U24:AW24"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="L14:T14"/>
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="L23:T23"/>
-    <mergeCell ref="U14:AW14"/>
-    <mergeCell ref="U22:AW22"/>
-    <mergeCell ref="U23:AW23"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="L14:T14"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="L22:T22"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="L15:T15"/>
     <mergeCell ref="U15:AW15"/>
@@ -34473,48 +34565,48 @@
     <mergeCell ref="L10:T10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="L11:T11"/>
-    <mergeCell ref="U24:AW24"/>
+    <mergeCell ref="U25:AW25"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="L30:T30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="L31:T31"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="L26:T26"/>
     <mergeCell ref="B29:K29"/>
     <mergeCell ref="L29:T29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="L30:T30"/>
+    <mergeCell ref="U26:AW26"/>
+    <mergeCell ref="U29:AW29"/>
+    <mergeCell ref="U30:AW30"/>
+    <mergeCell ref="U31:AW31"/>
     <mergeCell ref="B25:K25"/>
     <mergeCell ref="L25:T25"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="L28:T28"/>
-    <mergeCell ref="U25:AW25"/>
-    <mergeCell ref="U28:AW28"/>
-    <mergeCell ref="U29:AW29"/>
-    <mergeCell ref="U30:AW30"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="L26:T26"/>
-    <mergeCell ref="U26:AW26"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="L27:T27"/>
     <mergeCell ref="U27:AW27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="L28:T28"/>
+    <mergeCell ref="U28:AW28"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="L36:T36"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="L37:T37"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="L35:T35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="L36:T36"/>
-    <mergeCell ref="U35:AW35"/>
     <mergeCell ref="U36:AW36"/>
     <mergeCell ref="U37:AW37"/>
-    <mergeCell ref="U31:AW31"/>
+    <mergeCell ref="U38:AW38"/>
     <mergeCell ref="U32:AW32"/>
     <mergeCell ref="U33:AW33"/>
     <mergeCell ref="U34:AW34"/>
+    <mergeCell ref="U35:AW35"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="L34:T34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="L35:T35"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="L32:T32"/>
     <mergeCell ref="B33:K33"/>
     <mergeCell ref="L33:T33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="L34:T34"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="L31:T31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="L32:T32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
